--- a/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>19.53204370414236</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.4031925586089656</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.109469479763775</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.8233677731302166</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.776224066834431</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>7.306860550697478</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>-0.2177642701949869</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0311526845331437</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.5953334235215503</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.249093190457154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -934,10 +950,18 @@
       <c r="H14" t="n">
         <v>8.592076768497254</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>-0.2966519979474677</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.07082151409614748</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.9037196749651489</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.727714024660366</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1094,10 +1118,18 @@
       <c r="H18" t="n">
         <v>9.555590562448135</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.5874877635030271</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1412024805547104</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.0955827746949887</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.806117529550021</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.893800570573736</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.5348266449214059</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1282018702557457</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.2262958989451835</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.013425631032702</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
@@ -620,19 +620,19 @@
         <v>0.2794520547945206</v>
       </c>
       <c r="D5" t="n">
-        <v>118813.4370954025</v>
+        <v>118813.4402538303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008424039542551067</v>
+        <v>0.0009396634092559489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2573833195501989</v>
+        <v>0.2562687968355845</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.213709456744645</v>
+        <v>-3.166690184265289</v>
       </c>
       <c r="H5" t="n">
-        <v>31.36948860409825</v>
+        <v>30.69701035915155</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3561643835616438</v>
       </c>
       <c r="D6" t="n">
-        <v>119429.7664078273</v>
+        <v>119426.2414862402</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.003008367068184204</v>
+        <v>-0.003252274816201206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2290966115062988</v>
+        <v>0.2306427786821414</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.313419925170803</v>
+        <v>-1.37460089863363</v>
       </c>
       <c r="H6" t="n">
-        <v>10.44014436202253</v>
+        <v>11.09111437016731</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4520547945205479</v>
       </c>
       <c r="D7" t="n">
-        <v>120787.4830799489</v>
+        <v>120778.5835379928</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006222861445574982</v>
+        <v>-0.007682084482526705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.232687769831842</v>
+        <v>0.2397235403484029</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.7327804168651749</v>
+        <v>-0.8618971446192862</v>
       </c>
       <c r="H7" t="n">
-        <v>5.48645981977639</v>
+        <v>6.029805657320228</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7780821917808219</v>
       </c>
       <c r="D8" t="n">
-        <v>121207.6755379524</v>
+        <v>121158.5365706338</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02810541891268467</v>
+        <v>-0.02934473453374065</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2055406490250754</v>
+        <v>0.2089456869718486</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7910886468335934</v>
+        <v>-0.8666898587295436</v>
       </c>
       <c r="H8" t="n">
-        <v>5.975531103597068</v>
+        <v>6.408555039204717</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8547945205479452</v>
       </c>
       <c r="D9" t="n">
-        <v>122852.1889607285</v>
+        <v>122871.8380957177</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06217710845969154</v>
+        <v>-0.06077589391522076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3411736753522771</v>
+        <v>0.3321942907472831</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.751981032063972</v>
+        <v>-1.564542624292799</v>
       </c>
       <c r="H9" t="n">
-        <v>12.03044996743916</v>
+        <v>10.24899334351268</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.104109589041096</v>
       </c>
       <c r="D10" t="n">
-        <v>124276.9585390916</v>
+        <v>124274.877566475</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09839558454016366</v>
+        <v>-0.09964543623477756</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4238114272076006</v>
+        <v>0.4329951691417186</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.787718094435251</v>
+        <v>-1.904215885590203</v>
       </c>
       <c r="H10" t="n">
-        <v>8.85451503562037</v>
+        <v>9.830522351798576</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.350684931506849</v>
       </c>
       <c r="D11" t="n">
-        <v>129618.4526929009</v>
+        <v>126301.6564948566</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08322904932620397</v>
+        <v>-0.1740458614175637</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4244214547487691</v>
+        <v>0.7439092569507443</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.753733397907314</v>
+        <v>-2.56451977851868</v>
       </c>
       <c r="H11" t="n">
-        <v>7.697732981659227</v>
+        <v>12.40393845884312</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1020,19 +1020,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D16" t="n">
-        <v>116593.0766223617</v>
+        <v>116642.6763131885</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1202893560096015</v>
+        <v>0.1254973488098925</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1430372235107058</v>
+        <v>0.131530660456945</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7894234242119708</v>
+        <v>-0.3791559876162946</v>
       </c>
       <c r="H16" t="n">
-        <v>7.659309165401119</v>
+        <v>5.590775207335812</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2603453616418456</v>
@@ -1062,19 +1062,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D17" t="n">
-        <v>116577.9185677728</v>
+        <v>116591.6017221299</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1007715132911344</v>
+        <v>0.102464528396485</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1521743588158</v>
+        <v>0.1388459732910115</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.906312211885413</v>
+        <v>-0.6286019549745252</v>
       </c>
       <c r="H17" t="n">
-        <v>25.92485937560931</v>
+        <v>7.545776870995195</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1935401784334833</v>
@@ -1146,19 +1146,19 @@
         <v>0.0684931506849315</v>
       </c>
       <c r="D19" t="n">
-        <v>117382.7797571879</v>
+        <v>117420.7945423491</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04961211201885166</v>
+        <v>0.05151742074064533</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1520136721133001</v>
+        <v>0.1456571385932011</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8124154389056608</v>
+        <v>-0.5585721077709873</v>
       </c>
       <c r="H19" t="n">
-        <v>7.893800570573736</v>
+        <v>6.340494539439065</v>
       </c>
       <c r="I19" t="n">
         <v>-0.5348266449214059</v>
@@ -1188,19 +1188,19 @@
         <v>0.08767123287671233</v>
       </c>
       <c r="D20" t="n">
-        <v>117379.8659065504</v>
+        <v>117600.2326832831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03562913288900945</v>
+        <v>0.04547191680145291</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1775856546375478</v>
+        <v>0.1462089083649787</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.712252831329058</v>
+        <v>-0.5361635184772116</v>
       </c>
       <c r="H20" t="n">
-        <v>15.05511587582984</v>
+        <v>6.771562382336227</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>14.13494331249818</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3894124971558712</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1673272484145647</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.2662436487248483</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.160691423113439</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>6.771562382336227</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.3955686460571584</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1740690112466954</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.2417349354135718</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.120030282090759</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDQMOMENT_20250818.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>12.74818063125277</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.3125041300915371</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4712093240364904</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7536979182829137</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.332998588019548</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
